--- a/biology/Botanique/Peter_Brant/Peter_Brant.xlsx
+++ b/biology/Botanique/Peter_Brant/Peter_Brant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter M. Brant (né en 1947 à New York[1]) est un homme d'affaires américain. Propriétaire de Papiers White Birch et de Brant Publications, Inc., collectionneur d'art et producteur de films, il a fait partie de la liste des milliardaires du magazine Forbes pendant plusieurs années[2],[3].
-En 1995, il se marie en secondes noces avec la top model Stephanie Seymour[2]. Le couple a trois enfants[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter M. Brant (né en 1947 à New York) est un homme d'affaires américain. Propriétaire de Papiers White Birch et de Brant Publications, Inc., collectionneur d'art et producteur de films, il a fait partie de la liste des milliardaires du magazine Forbes pendant plusieurs années,.
+En 1995, il se marie en secondes noces avec la top model Stephanie Seymour. Le couple a trois enfants.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Brant Publications, Inc.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brant est le propriétaire de Brant Publications, Inc. (BPI), une compagnie fondée en 1984 et dont le siège social est situé à New York. BPI publie quatre magazines dont Interview.
 </t>
@@ -543,7 +557,9 @@
           <t>Courses de chevaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Brant possède une importante écurie de pur-sang, White Birch Farm, dont sont issus plusieurs champions ayant couru en Europe comme aux États-Unis, parmi lesquels Sottsass (Prix de l'Arc de Triomphe, Prix du Jockey Club). Également éleveur (Thunder Gulch, lauréat du Kentucky Derby), il fut associé à Claiborne Farm sur le champion Swale (3 ans de l'année aux États-Unis en 1984) et sur le chef de race Mr. Prospector.
 </t>
@@ -574,7 +590,9 @@
           <t>Filmographie partielle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2014 : The Homesman de Tommy Lee Jones (producteur)</t>
         </is>
